--- a/MonthlySales.xlsx
+++ b/MonthlySales.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/git/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bensullins/git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -180,25 +180,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF666666"/>
-      <name val="Tableau Book"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Tableau Medium"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Tableau Book"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -571,158 +566,160 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,400 +1000,405 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>14236.894999999995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>4519.8919999999989</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>55691.009000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>28295.344999999987</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>23648.286999999989</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>34595.127600000022</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>33946.392999999989</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>27909.468499999981</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>81777.3508</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>31453.392999999996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>78628.716700000019</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>69545.620500000019</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>18174.0756</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>11951.410999999996</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>38726.251999999986</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>34195.208500000015</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>30131.686500000018</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>24797.291999999987</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>28765.324999999993</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>36898.332199999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>64595.918000000042</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="23">
         <v>31404.923499999986</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>75972.563500000062</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>74919.521200000032</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>18542.490999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>22867.710999999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>51186.217000000011</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>39248.592999999993</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>56691.076999999968</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="32">
+      <c r="B31" s="31">
         <v>39430.443000000007</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>38440.754999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="33">
         <v>33265.564300000013</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="34">
         <v>72908.108899999992</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>56463.130000000012</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>82192.322799999994</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="37">
         <v>97237.416999999972</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="38">
         <v>44703.142000000007</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="39">
         <v>20301.133399999988</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="40">
         <v>58872.352799999979</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="42">
+      <c r="B41" s="41">
         <v>36521.536099999983</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="42">
         <v>44261.110199999996</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="44">
+      <c r="B43" s="43">
         <v>52981.725699999981</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="44">
         <v>45264.415999999961</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="45">
         <v>63120.887999999992</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="46">
         <v>87866.652000000104</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="48">
+      <c r="B47" s="47">
         <v>77776.923199999932</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="48">
         <v>118447.82499999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B49" s="49">
         <v>83829.318799999994</v>
       </c>
     </row>
